--- a/data/trans_orig/P6904-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A98554D4-43FB-47CA-A56B-E949EC13D56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF955968-A043-4961-B6A6-4C061C41748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10F88008-70E5-4282-BA21-CF13B0942C97}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61927EB4-7459-4809-96E8-3EDD38D8FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="454">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>47,78%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>52,22%</t>
   </si>
   <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>48,07%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>54,03%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>58,48%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
   </si>
   <si>
     <t>57,51%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
   </si>
   <si>
     <t>58,13%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
   <si>
     <t>42,49%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>41,87%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>47,81%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>62,43%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
   </si>
   <si>
     <t>54,32%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>37,57%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -386,55 +386,55 @@
     <t>52,24%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>51,75%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>52,08%</t>
   </si>
   <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
   </si>
   <si>
     <t>47,92%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -446,319 +446,319 @@
     <t>43,01%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>47,41%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>52,29%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>43,98%</t>
   </si>
   <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>52,59%</t>
   </si>
   <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>47,71%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>58,05%</t>
   </si>
   <si>
-    <t>68,89%</t>
+    <t>67,74%</t>
   </si>
   <si>
     <t>55,93%</t>
   </si>
   <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>31,11%</t>
+    <t>32,26%</t>
   </si>
   <si>
     <t>44,07%</t>
   </si>
   <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>45,39%</t>
   </si>
   <si>
-    <t>29,52%</t>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
     <t>54,61%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
   </si>
   <si>
     <t>57,59%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>42,41%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
   </si>
   <si>
     <t>54,83%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>53,57%</t>
   </si>
   <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>45,17%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
   </si>
   <si>
     <t>48,34%</t>
   </si>
   <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>46,43%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
@@ -767,61 +767,61 @@
     <t>47,94%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>55,69%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>32,91%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
   </si>
   <si>
     <t>44,31%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
   </si>
   <si>
     <t>59,13%</t>
   </si>
   <si>
-    <t>47,24%</t>
+    <t>47,43%</t>
   </si>
   <si>
     <t>69,73%</t>
@@ -830,19 +830,19 @@
     <t>63,21%</t>
   </si>
   <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>60,61%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>40,87%</t>
@@ -851,151 +851,154 @@
     <t>30,27%</t>
   </si>
   <si>
-    <t>52,76%</t>
+    <t>52,57%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
   </si>
   <si>
     <t>39,39%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
   </si>
   <si>
     <t>64,57%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>75,0%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>35,43%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>25,0%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>55,05%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>64,06%</t>
   </si>
   <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
   </si>
   <si>
     <t>44,95%</t>
   </si>
   <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>35,94%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>63,78%</t>
   </si>
   <si>
-    <t>78,22%</t>
+    <t>78,07%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>66,64%</t>
+    <t>68,76%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>21,78%</t>
+    <t>21,93%</t>
   </si>
   <si>
     <t>14,68%</t>
@@ -1004,16 +1007,13 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -1025,55 +1025,49 @@
     <t>59,55%</t>
   </si>
   <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
+    <t>67,38%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>32,62%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
@@ -1085,232 +1079,238 @@
     <t>40,15%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>38,2%</t>
   </si>
   <si>
-    <t>15,19%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>52,48%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>63,18%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
+    <t>71,65%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>36,82%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>28,35%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>62,9%</t>
   </si>
   <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>77,85%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>72,95%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>22,15%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>27,05%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
   </si>
   <si>
     <t>51,53%</t>
@@ -1322,13 +1322,16 @@
     <t>72,68%</t>
   </si>
   <si>
+    <t>22,73%</t>
+  </si>
+  <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>48,47%</t>
@@ -1340,61 +1343,64 @@
     <t>27,32%</t>
   </si>
   <si>
+    <t>77,27%</t>
+  </si>
+  <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>56,15%</t>
+    <t>55,76%</t>
   </si>
   <si>
     <t>62,71%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
   <si>
     <t>62,21%</t>
   </si>
   <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>43,85%</t>
+    <t>44,24%</t>
   </si>
   <si>
     <t>37,29%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA41490-7F72-426A-9BA5-0B7FC5075D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC254E1-3E05-4EF7-A6E2-8F8F5CF28AFD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3019,7 +3025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A078FA85-D72E-4F73-83DD-CCCAD12F9712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3FBE8C-707C-48C3-8235-6B6EA4FC4760}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3462,7 @@
         <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>171</v>
@@ -3510,7 +3516,7 @@
         <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -4220,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD614BC-BC05-400C-8D72-21653CE042E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063AFE1F-EB2D-427C-BE45-8DADE4C672F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4672,10 +4678,10 @@
         <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4684,13 +4690,13 @@
         <v>119110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4711,13 @@
         <v>40082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4720,13 +4726,13 @@
         <v>25389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4735,13 +4741,13 @@
         <v>65471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4815,13 @@
         <v>50335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4824,13 +4830,13 @@
         <v>35943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -4842,10 +4848,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4866,13 @@
         <v>41093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4875,13 +4881,13 @@
         <v>20164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -4893,10 +4899,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4970,13 @@
         <v>28605</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4979,13 +4985,13 @@
         <v>26276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4994,13 +5000,13 @@
         <v>54881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5021,13 @@
         <v>16243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5030,13 +5036,13 @@
         <v>4523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5045,7 +5051,7 @@
         <v>20765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>323</v>
@@ -5301,10 +5307,10 @@
         <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5325,13 @@
         <v>141561</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>69</v>
@@ -5334,13 +5340,13 @@
         <v>70936</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -5349,13 +5355,13 @@
         <v>212497</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E0BF3D-7256-4723-83E5-2BCB558CF739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC3822A-0029-4A26-B1B2-5886A8CB8DE8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5450,7 +5456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5557,7 +5563,7 @@
         <v>2112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>111</v>
@@ -5572,13 +5578,13 @@
         <v>6840</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5587,13 +5593,13 @@
         <v>8952</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,7 +5614,7 @@
         <v>4286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>111</v>
@@ -5623,13 +5629,13 @@
         <v>10197</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5638,13 +5644,13 @@
         <v>14483</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5718,13 @@
         <v>36814</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5730,10 +5736,10 @@
         <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5742,13 +5748,13 @@
         <v>66212</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5769,13 @@
         <v>21618</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5781,10 +5787,10 @@
         <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5793,13 +5799,13 @@
         <v>48117</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5873,13 @@
         <v>59749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -5882,13 +5888,13 @@
         <v>46480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5897,13 +5903,13 @@
         <v>106229</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5924,13 @@
         <v>38991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -5933,13 +5939,13 @@
         <v>34570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5948,13 +5954,13 @@
         <v>73561</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6028,13 @@
         <v>72397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -6037,13 +6043,13 @@
         <v>100135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -6052,13 +6058,13 @@
         <v>172533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6079,13 @@
         <v>42197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -6088,13 +6094,13 @@
         <v>43896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -6103,13 +6109,13 @@
         <v>86093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6183,13 @@
         <v>45140</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -6192,13 +6198,13 @@
         <v>41387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -6207,13 +6213,13 @@
         <v>86527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6234,13 @@
         <v>26623</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6243,13 +6249,13 @@
         <v>18678</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -6258,13 +6264,13 @@
         <v>45301</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6356,7 @@
         <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>108</v>
@@ -6362,13 +6368,13 @@
         <v>3868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6389,13 @@
         <v>1498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6398,13 +6404,13 @@
         <v>855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6413,13 +6419,13 @@
         <v>2353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6493,13 @@
         <v>217806</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="H22" s="7">
         <v>295</v>
@@ -6502,13 +6508,13 @@
         <v>226516</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>506</v>
@@ -6517,13 +6523,13 @@
         <v>444321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6544,13 @@
         <v>135212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H23" s="7">
         <v>179</v>
@@ -6553,13 +6559,13 @@
         <v>134695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M23" s="7">
         <v>306</v>
@@ -6568,13 +6574,13 @@
         <v>269907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6904-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF955968-A043-4961-B6A6-4C061C41748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE97DCC6-DF08-4C3D-A072-87DBBFDE8919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{61927EB4-7459-4809-96E8-3EDD38D8FC97}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30933A11-B498-4FD1-AD4C-F2E9A48363BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>47,78%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>52,22%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,880 +140,874 @@
     <t>48,07%</t>
   </si>
   <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>39,73%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
   </si>
   <si>
     <t>52,65%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -1025,361 +1019,349 @@
     <t>59,55%</t>
   </si>
   <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>32,62%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
   </si>
   <si>
     <t>44,24%</t>
@@ -1812,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC254E1-3E05-4EF7-A6E2-8F8F5CF28AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07068E52-A3D6-430E-B40B-421A1BDFE95B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2875,13 +2857,13 @@
         <v>113916</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>345</v>
@@ -2890,13 +2872,13 @@
         <v>360650</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2893,13 @@
         <v>225571</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -2926,13 +2908,13 @@
         <v>106205</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>320</v>
@@ -2941,13 +2923,13 @@
         <v>331777</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +2985,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3FBE8C-707C-48C3-8235-6B6EA4FC4760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943C4685-223C-4F2D-A4A9-5EC553BD4076}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3042,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3149,13 +3131,13 @@
         <v>4441</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3164,13 +3146,13 @@
         <v>3860</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3179,13 +3161,13 @@
         <v>8301</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3182,13 @@
         <v>5886</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3215,13 +3197,13 @@
         <v>6196</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3230,13 +3212,13 @@
         <v>12082</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3286,13 @@
         <v>48341</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3319,13 +3301,13 @@
         <v>31325</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3334,13 +3316,13 @@
         <v>79665</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3337,13 @@
         <v>37947</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3370,13 +3352,13 @@
         <v>34745</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -3385,13 +3367,13 @@
         <v>72693</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3441,13 @@
         <v>56281</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3474,13 +3456,13 @@
         <v>40626</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3489,13 +3471,13 @@
         <v>96908</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3492,13 @@
         <v>40674</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3787,10 +3769,10 @@
         <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3799,13 +3781,13 @@
         <v>40364</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3802,13 @@
         <v>17741</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3835,13 +3817,13 @@
         <v>8311</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -3850,13 +3832,13 @@
         <v>26052</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4043,13 @@
         <v>178441</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -4076,13 +4058,13 @@
         <v>110383</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>269</v>
@@ -4091,13 +4073,13 @@
         <v>288825</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4094,13 @@
         <v>147014</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H23" s="7">
         <v>97</v>
@@ -4127,13 +4109,13 @@
         <v>103278</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M23" s="7">
         <v>239</v>
@@ -4142,13 +4124,13 @@
         <v>250291</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4186,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +4208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063AFE1F-EB2D-427C-BE45-8DADE4C672F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA8D19D-8A17-487E-8BEA-443C9A289129}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4243,7 +4225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4350,13 +4332,13 @@
         <v>8222</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4365,13 +4347,13 @@
         <v>7812</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4380,13 +4362,13 @@
         <v>16034</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4383,13 @@
         <v>8929</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4416,13 +4398,13 @@
         <v>3831</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4431,13 +4413,13 @@
         <v>12760</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4487,13 @@
         <v>48236</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -4520,13 +4502,13 @@
         <v>29262</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -4535,13 +4517,13 @@
         <v>77497</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4538,13 @@
         <v>33336</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4571,13 +4553,13 @@
         <v>17029</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4586,13 +4568,13 @@
         <v>50366</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4642,13 @@
         <v>73041</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -4675,13 +4657,13 @@
         <v>46069</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4690,13 +4672,13 @@
         <v>119110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4693,13 @@
         <v>40082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4726,13 +4708,13 @@
         <v>25389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4741,13 +4723,13 @@
         <v>65471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4797,13 @@
         <v>50335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4830,13 +4812,13 @@
         <v>35943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -4848,10 +4830,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4848,13 @@
         <v>41093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4881,13 +4863,13 @@
         <v>20164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -4899,10 +4881,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4952,13 @@
         <v>28605</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4985,13 +4967,13 @@
         <v>26276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -5000,13 +4982,13 @@
         <v>54881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5003,13 @@
         <v>16243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5036,13 +5018,13 @@
         <v>4523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5051,13 +5033,13 @@
         <v>20765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5113,7 @@
         <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5159,7 +5141,7 @@
         <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,7 +5159,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5205,7 +5187,7 @@
         <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5274,13 +5256,13 @@
         <v>208440</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -5289,13 +5271,13 @@
         <v>145362</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>331</v>
@@ -5304,13 +5286,13 @@
         <v>353802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5307,13 @@
         <v>141561</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>69</v>
@@ -5340,13 +5322,13 @@
         <v>70936</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -5355,13 +5337,13 @@
         <v>212497</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,7 +5399,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5439,7 +5421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC3822A-0029-4A26-B1B2-5886A8CB8DE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB12B328-9039-42DC-9A96-66331361B89E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5456,7 +5438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5563,7 +5545,7 @@
         <v>2112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>111</v>
@@ -5578,13 +5560,13 @@
         <v>6840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5593,13 +5575,13 @@
         <v>8952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5596,7 @@
         <v>4286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>111</v>
@@ -5629,13 +5611,13 @@
         <v>10197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5644,13 +5626,13 @@
         <v>14483</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5700,13 @@
         <v>36814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5733,13 +5715,13 @@
         <v>29398</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5748,13 +5730,13 @@
         <v>66212</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5751,13 @@
         <v>21618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5784,13 +5766,13 @@
         <v>26499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5799,13 +5781,13 @@
         <v>48117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5855,13 @@
         <v>59749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -5888,13 +5870,13 @@
         <v>46480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5903,13 +5885,13 @@
         <v>106229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,10 +5906,10 @@
         <v>38991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>186</v>
@@ -5939,13 +5921,13 @@
         <v>34570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5954,13 +5936,13 @@
         <v>73561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6010,13 @@
         <v>72397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -6043,13 +6025,13 @@
         <v>100135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -6058,13 +6040,13 @@
         <v>172533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6061,13 @@
         <v>42197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -6094,13 +6076,13 @@
         <v>43896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -6109,13 +6091,13 @@
         <v>86093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6165,13 @@
         <v>45140</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -6198,13 +6180,13 @@
         <v>41387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -6213,13 +6195,13 @@
         <v>86527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6216,13 @@
         <v>26623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6249,13 +6231,13 @@
         <v>18678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -6264,13 +6246,13 @@
         <v>45301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,10 +6320,10 @@
         <v>1592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>108</v>
@@ -6353,10 +6335,10 @@
         <v>2276</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>108</v>
@@ -6368,13 +6350,13 @@
         <v>3868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6371,13 @@
         <v>1498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6404,13 +6386,13 @@
         <v>855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6419,13 +6401,13 @@
         <v>2353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6475,13 @@
         <v>217806</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>295</v>
@@ -6508,13 +6490,13 @@
         <v>226516</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>506</v>
@@ -6523,13 +6505,13 @@
         <v>444321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6526,13 @@
         <v>135212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>342</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>179</v>
@@ -6559,13 +6541,13 @@
         <v>134695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>306</v>
@@ -6574,13 +6556,13 @@
         <v>269907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6618,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6904-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE97DCC6-DF08-4C3D-A072-87DBBFDE8919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D04C8EE-EAE5-44D8-9E82-F8CB8A5CC2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30933A11-B498-4FD1-AD4C-F2E9A48363BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC62FB02-47D6-453D-B87B-FAFB05C709E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="452">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>47,78%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>52,22%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>48,07%</t>
   </si>
   <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>54,03%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1192 +197,1204 @@
     <t>58,48%</t>
   </si>
   <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>60,57%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>42,21%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07068E52-A3D6-430E-B40B-421A1BDFE95B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E06CD4B-3A2B-4D3A-9A29-B7C191D4839A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2857,13 +2869,13 @@
         <v>113916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>345</v>
@@ -2872,13 +2884,13 @@
         <v>360650</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2905,13 @@
         <v>225571</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -2908,13 +2920,13 @@
         <v>106205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>320</v>
@@ -2923,13 +2935,13 @@
         <v>331777</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +2997,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943C4685-223C-4F2D-A4A9-5EC553BD4076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC5EF3-4861-4E03-BEB3-4D8A9F203B84}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3024,7 +3036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3131,13 +3143,13 @@
         <v>4441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3146,13 +3158,13 @@
         <v>3860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3161,13 +3173,13 @@
         <v>8301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3194,13 @@
         <v>5886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3197,13 +3209,13 @@
         <v>6196</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3212,13 +3224,13 @@
         <v>12082</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3298,13 @@
         <v>48341</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3301,13 +3313,13 @@
         <v>31325</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3316,13 +3328,13 @@
         <v>79665</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3349,13 @@
         <v>37947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3352,13 +3364,13 @@
         <v>34745</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -3367,13 +3379,13 @@
         <v>72693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3453,13 @@
         <v>56281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3456,13 +3468,13 @@
         <v>40626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3471,13 +3483,13 @@
         <v>96908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3504,13 @@
         <v>40674</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3769,10 +3781,10 @@
         <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3781,13 +3793,13 @@
         <v>40364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3814,13 @@
         <v>17741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3817,13 +3829,13 @@
         <v>8311</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -3832,13 +3844,13 @@
         <v>26052</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4055,13 @@
         <v>178441</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -4058,13 +4070,13 @@
         <v>110383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>269</v>
@@ -4073,13 +4085,13 @@
         <v>288825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4106,13 @@
         <v>147014</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H23" s="7">
         <v>97</v>
@@ -4109,13 +4121,13 @@
         <v>103278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M23" s="7">
         <v>239</v>
@@ -4124,13 +4136,13 @@
         <v>250291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4198,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4208,7 +4220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA8D19D-8A17-487E-8BEA-443C9A289129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633733A-536D-4A39-9B26-3CA98740A6E6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4225,7 +4237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4332,13 +4344,13 @@
         <v>8222</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4347,13 +4359,13 @@
         <v>7812</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4362,13 +4374,13 @@
         <v>16034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4395,13 @@
         <v>8929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4398,13 +4410,13 @@
         <v>3831</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4413,13 +4425,13 @@
         <v>12760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4499,13 @@
         <v>48236</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -4502,13 +4514,13 @@
         <v>29262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -4517,13 +4529,13 @@
         <v>77497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4550,13 @@
         <v>33336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4553,13 +4565,13 @@
         <v>17029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4568,13 +4580,13 @@
         <v>50366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4654,13 @@
         <v>73041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -4657,13 +4669,13 @@
         <v>46069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4672,13 +4684,13 @@
         <v>119110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4705,13 @@
         <v>40082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4708,13 +4720,13 @@
         <v>25389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4723,13 +4735,13 @@
         <v>65471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4809,13 @@
         <v>50335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4812,13 +4824,13 @@
         <v>35943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -4830,10 +4842,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4860,13 @@
         <v>41093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4863,13 +4875,13 @@
         <v>20164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -4881,10 +4893,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4964,13 @@
         <v>28605</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4967,13 +4979,13 @@
         <v>26276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4982,13 +4994,13 @@
         <v>54881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5015,13 @@
         <v>16243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5018,13 +5030,13 @@
         <v>4523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5033,13 +5045,13 @@
         <v>20765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,7 +5125,7 @@
         <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5141,7 +5153,7 @@
         <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,7 +5171,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5187,7 +5199,7 @@
         <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5256,13 +5268,13 @@
         <v>208440</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>138</v>
@@ -5271,13 +5283,13 @@
         <v>145362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>331</v>
@@ -5286,13 +5298,13 @@
         <v>353802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5319,13 @@
         <v>141561</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>69</v>
@@ -5322,13 +5334,13 @@
         <v>70936</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>198</v>
@@ -5337,13 +5349,13 @@
         <v>212497</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5411,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5421,7 +5433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB12B328-9039-42DC-9A96-66331361B89E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0DD3E6-3A2E-4EF1-8B01-BE6F59615996}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5438,7 +5450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5545,7 +5557,7 @@
         <v>2112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>111</v>
@@ -5560,13 +5572,13 @@
         <v>6840</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5575,13 +5587,13 @@
         <v>8952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,7 +5608,7 @@
         <v>4286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>111</v>
@@ -5611,13 +5623,13 @@
         <v>10197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5626,13 +5638,13 @@
         <v>14483</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5712,13 @@
         <v>36814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5715,13 +5727,13 @@
         <v>29398</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5730,13 +5742,13 @@
         <v>66212</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5763,13 @@
         <v>21618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5766,13 +5778,13 @@
         <v>26499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5781,13 +5793,13 @@
         <v>48117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5867,13 @@
         <v>59749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -5870,13 +5882,13 @@
         <v>46480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -5885,13 +5897,13 @@
         <v>106229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5918,13 @@
         <v>38991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -5921,13 +5933,13 @@
         <v>34570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -5936,13 +5948,13 @@
         <v>73561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6022,13 @@
         <v>72397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -6025,13 +6037,13 @@
         <v>100135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -6040,13 +6052,13 @@
         <v>172533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6073,13 @@
         <v>42197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -6076,13 +6088,13 @@
         <v>43896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -6091,13 +6103,13 @@
         <v>86093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6177,13 @@
         <v>45140</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -6180,13 +6192,13 @@
         <v>41387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -6195,13 +6207,13 @@
         <v>86527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6228,13 @@
         <v>26623</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6231,13 +6243,13 @@
         <v>18678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -6246,13 +6258,13 @@
         <v>45301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,10 +6332,10 @@
         <v>1592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>108</v>
@@ -6335,10 +6347,10 @@
         <v>2276</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>108</v>
@@ -6350,13 +6362,13 @@
         <v>3868</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6383,13 @@
         <v>1498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6386,13 +6398,13 @@
         <v>855</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -6401,13 +6413,13 @@
         <v>2353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6487,13 @@
         <v>217806</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>295</v>
@@ -6490,13 +6502,13 @@
         <v>226516</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>506</v>
@@ -6505,13 +6517,13 @@
         <v>444321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6538,13 @@
         <v>135212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>179</v>
@@ -6541,13 +6553,13 @@
         <v>134695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M23" s="7">
         <v>306</v>
@@ -6556,13 +6568,13 @@
         <v>269907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,7 +6630,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6904-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D04C8EE-EAE5-44D8-9E82-F8CB8A5CC2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E04B393-EE00-4386-8B81-0A6AD8B52E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC62FB02-47D6-453D-B87B-FAFB05C709E4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{29B6E20E-A8F9-47B0-881E-7573C59BC833}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="461">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>48,07%</t>
@@ -191,7 +191,7 @@
     <t>61,52%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>58,48%</t>
@@ -248,7 +248,7 @@
     <t>49,23%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>47,81%</t>
@@ -305,7 +305,7 @@
     <t>56,75%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>62,43%</t>
@@ -362,7 +362,13 @@
     <t>58,11%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -371,9 +377,6 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -1079,322 +1082,346 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
 </sst>
 </file>
@@ -1806,8 +1833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E06CD4B-3A2B-4D3A-9A29-B7C191D4839A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E5175-59B0-4A52-BA2C-30FEE230B840}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2699,47 +2726,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,45 +2773,41 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,100 +2816,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>246734</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>821</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="7">
-        <v>113916</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M22" s="7">
-        <v>345</v>
-      </c>
-      <c r="N22" s="7">
-        <v>360650</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2912,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>225571</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
-        <v>104</v>
-      </c>
-      <c r="I23" s="7">
-        <v>106205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>331777</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,63 +2961,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>234</v>
+      </c>
+      <c r="D25" s="7">
+        <v>246734</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="7">
+        <v>111</v>
+      </c>
+      <c r="I25" s="7">
+        <v>113916</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" s="7">
+        <v>345</v>
+      </c>
+      <c r="N25" s="7">
+        <v>360650</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>216</v>
+      </c>
+      <c r="D26" s="7">
+        <v>225571</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7">
+        <v>104</v>
+      </c>
+      <c r="I26" s="7">
+        <v>106205</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="7">
+        <v>320</v>
+      </c>
+      <c r="N26" s="7">
+        <v>331777</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3019,8 +3184,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC5EF3-4861-4E03-BEB3-4D8A9F203B84}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A08860-FB21-4DC6-B503-9E7BAD3F93A3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3036,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3143,13 +3308,13 @@
         <v>4441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3158,13 +3323,13 @@
         <v>3860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3173,13 +3338,13 @@
         <v>8301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3359,13 @@
         <v>5886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3209,13 +3374,13 @@
         <v>6196</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3224,13 +3389,13 @@
         <v>12082</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3463,13 @@
         <v>48341</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3313,13 +3478,13 @@
         <v>31325</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3328,13 +3493,13 @@
         <v>79665</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3514,13 @@
         <v>37947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3364,13 +3529,13 @@
         <v>34745</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -3379,13 +3544,13 @@
         <v>72693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3618,13 @@
         <v>56281</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3468,13 +3633,13 @@
         <v>40626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3483,13 +3648,13 @@
         <v>96908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,10 +3669,10 @@
         <v>40674</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -3519,13 +3684,13 @@
         <v>32005</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -3534,13 +3699,13 @@
         <v>72679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3773,13 @@
         <v>45285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -3623,13 +3788,13 @@
         <v>18301</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3638,13 +3803,13 @@
         <v>63587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3824,13 @@
         <v>44766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -3674,13 +3839,13 @@
         <v>22020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -3689,13 +3854,13 @@
         <v>66785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3928,13 @@
         <v>24093</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3778,13 +3943,13 @@
         <v>16271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3793,13 +3958,13 @@
         <v>40364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3979,13 @@
         <v>17741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3829,13 +3994,13 @@
         <v>8311</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -3844,13 +4009,13 @@
         <v>26052</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,39 +4081,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,39 +4126,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,92 +4171,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>170</v>
-      </c>
-      <c r="D22" s="7">
-        <v>178441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>99</v>
-      </c>
-      <c r="I22" s="7">
-        <v>110383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>269</v>
-      </c>
-      <c r="N22" s="7">
-        <v>288825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,49 +4259,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>142</v>
-      </c>
-      <c r="D23" s="7">
-        <v>147014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>97</v>
-      </c>
-      <c r="I23" s="7">
-        <v>103278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>239</v>
-      </c>
-      <c r="N23" s="7">
-        <v>250291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,63 +4304,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>170</v>
+      </c>
+      <c r="D25" s="7">
+        <v>178441</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="7">
+        <v>99</v>
+      </c>
+      <c r="I25" s="7">
+        <v>110383</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="7">
+        <v>269</v>
+      </c>
+      <c r="N25" s="7">
+        <v>288825</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>142</v>
+      </c>
+      <c r="D26" s="7">
+        <v>147014</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7">
+        <v>97</v>
+      </c>
+      <c r="I26" s="7">
+        <v>103278</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="7">
+        <v>239</v>
+      </c>
+      <c r="N26" s="7">
+        <v>250291</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>312</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>325455</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>196</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>213661</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>508</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>539116</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4220,8 +4523,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633733A-536D-4A39-9B26-3CA98740A6E6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E77822-20A4-4F56-ACE9-60E32D452A65}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4237,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4344,13 +4647,13 @@
         <v>8222</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4359,13 +4662,13 @@
         <v>7812</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4374,13 +4677,13 @@
         <v>16034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4698,13 @@
         <v>8929</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4410,13 +4713,13 @@
         <v>3831</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4425,13 +4728,13 @@
         <v>12760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4802,13 @@
         <v>48236</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -4514,13 +4817,13 @@
         <v>29262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -4529,13 +4832,13 @@
         <v>77497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4853,13 @@
         <v>33336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -4565,13 +4868,13 @@
         <v>17029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4580,13 +4883,13 @@
         <v>50366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4957,13 @@
         <v>73041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -4669,13 +4972,13 @@
         <v>46069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4684,13 +4987,13 @@
         <v>119110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +5008,13 @@
         <v>40082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -4720,13 +5023,13 @@
         <v>25389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4735,13 +5038,13 @@
         <v>65471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +5112,13 @@
         <v>50335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4824,13 +5127,13 @@
         <v>35943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -4842,10 +5145,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +5163,13 @@
         <v>41093</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4875,13 +5178,13 @@
         <v>20164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -4893,10 +5196,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +5267,13 @@
         <v>28605</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4979,13 +5282,13 @@
         <v>26276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4994,13 +5297,13 @@
         <v>54881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,10 +5318,10 @@
         <v>16243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -5030,13 +5333,13 @@
         <v>4523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -5045,13 +5348,13 @@
         <v>20765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,26 +5422,26 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5147,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,10 +5471,10 @@
         <v>1880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5181,13 +5484,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5196,10 +5499,10 @@
         <v>1880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5230,13 +5533,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5256,55 +5559,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>193</v>
-      </c>
-      <c r="D22" s="7">
-        <v>208440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>138</v>
-      </c>
-      <c r="I22" s="7">
-        <v>145362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>331</v>
-      </c>
-      <c r="N22" s="7">
-        <v>353802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,49 +5610,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>129</v>
-      </c>
-      <c r="D23" s="7">
-        <v>141561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>69</v>
-      </c>
-      <c r="I23" s="7">
-        <v>70936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>198</v>
-      </c>
-      <c r="N23" s="7">
-        <v>212497</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,63 +5655,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>193</v>
+      </c>
+      <c r="D25" s="7">
+        <v>208440</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="7">
+        <v>138</v>
+      </c>
+      <c r="I25" s="7">
+        <v>145362</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M25" s="7">
+        <v>331</v>
+      </c>
+      <c r="N25" s="7">
+        <v>353802</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>129</v>
+      </c>
+      <c r="D26" s="7">
+        <v>141561</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="7">
+        <v>69</v>
+      </c>
+      <c r="I26" s="7">
+        <v>70936</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M26" s="7">
+        <v>198</v>
+      </c>
+      <c r="N26" s="7">
+        <v>212497</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5433,8 +5874,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0DD3E6-3A2E-4EF1-8B01-BE6F59615996}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C488DC-FF94-42F4-AF88-5275BCCEB6F0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5450,7 +5891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5554,46 +5995,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2112</v>
+        <v>1805</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>6840</v>
+        <v>6239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>8952</v>
+        <v>8044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,46 +6046,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>4286</v>
+        <v>4184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>10197</v>
+        <v>9105</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>14483</v>
+        <v>13289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5671,7 +6112,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5686,7 +6127,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5709,46 +6150,46 @@
         <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>36814</v>
+        <v>36874</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>29398</v>
+        <v>25897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>66212</v>
+        <v>62771</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,46 +6201,46 @@
         <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>21618</v>
+        <v>22200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>26499</v>
+        <v>24052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>48117</v>
+        <v>46251</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,7 +6252,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5826,7 +6267,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5841,7 +6282,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5864,46 +6305,46 @@
         <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>59749</v>
+        <v>57919</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>46480</v>
+        <v>43432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>106229</v>
+        <v>101351</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,46 +6356,46 @@
         <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>38991</v>
+        <v>37612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>34570</v>
+        <v>32120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>73561</v>
+        <v>69733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +6407,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5981,7 +6422,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5996,7 +6437,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6019,46 +6460,46 @@
         <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>72397</v>
+        <v>68515</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
       </c>
       <c r="I13" s="7">
-        <v>100135</v>
+        <v>115075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
       </c>
       <c r="N13" s="7">
-        <v>172533</v>
+        <v>183590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,46 +6511,46 @@
         <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>42197</v>
+        <v>40038</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>43896</v>
+        <v>39874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>86093</v>
+        <v>79912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,7 +6562,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6136,7 +6577,7 @@
         <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6151,7 +6592,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6174,46 +6615,46 @@
         <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>45140</v>
+        <v>42196</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
       </c>
       <c r="I16" s="7">
-        <v>41387</v>
+        <v>38492</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>86527</v>
+        <v>80688</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,46 +6666,46 @@
         <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>26623</v>
+        <v>25240</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>18678</v>
+        <v>17015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>45301</v>
+        <v>42255</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,7 +6717,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6291,7 +6732,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6306,7 +6747,7 @@
         <v>179</v>
       </c>
       <c r="N18" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6329,46 +6770,46 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1592</v>
+        <v>1465</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2276</v>
+        <v>2125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>3868</v>
+        <v>3589</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,46 +6821,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1498</v>
+        <v>1458</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>855</v>
+        <v>789</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2353</v>
+        <v>2247</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,7 +6872,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6446,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6461,7 +6902,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6475,55 +6916,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>211</v>
-      </c>
-      <c r="D22" s="7">
-        <v>217806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>295</v>
-      </c>
-      <c r="I22" s="7">
-        <v>226516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>506</v>
-      </c>
-      <c r="N22" s="7">
-        <v>444321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,49 +6967,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>127</v>
-      </c>
-      <c r="D23" s="7">
-        <v>135212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>179</v>
-      </c>
-      <c r="I23" s="7">
-        <v>134695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>306</v>
-      </c>
-      <c r="N23" s="7">
-        <v>269907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,63 +7012,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>211</v>
+      </c>
+      <c r="D25" s="7">
+        <v>208774</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H25" s="7">
+        <v>295</v>
+      </c>
+      <c r="I25" s="7">
+        <v>231260</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M25" s="7">
+        <v>506</v>
+      </c>
+      <c r="N25" s="7">
+        <v>440034</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>127</v>
+      </c>
+      <c r="D26" s="7">
+        <v>130731</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H26" s="7">
+        <v>179</v>
+      </c>
+      <c r="I26" s="7">
+        <v>122955</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M26" s="7">
+        <v>306</v>
+      </c>
+      <c r="N26" s="7">
+        <v>253686</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>338</v>
       </c>
-      <c r="D24" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="I24" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>812</v>
       </c>
-      <c r="N24" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
